--- a/plan/plan_tracklist.xlsx
+++ b/plan/plan_tracklist.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Sunday</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1394,6 +1394,39 @@
       </rPr>
       <t>内核</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为什么</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Shell </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>脚本不工作，语法之外的那些事儿</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1853,7 +1886,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2031,6 +2064,9 @@
       </c>
       <c r="D9" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>61</v>

--- a/plan/plan_tracklist.xlsx
+++ b/plan/plan_tracklist.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Sunday</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1427,13 +1427,16 @@
       <t>脚本不工作，语法之外的那些事儿</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux Lab: 内核实验环境</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1513,6 +1516,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF353535"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1565,7 +1574,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1585,6 +1594,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1886,7 +1896,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1950,12 +1960,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.5">
+    <row r="3" spans="1:8" ht="27">
       <c r="A3" s="3">
         <v>21</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>39</v>
+      <c r="C3" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>18</v>
@@ -1975,7 +1985,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>13</v>
@@ -1993,6 +2003,9 @@
     <row r="5" spans="1:8" ht="28.5">
       <c r="A5" s="3">
         <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>

--- a/plan/plan_tracklist.xlsx
+++ b/plan/plan_tracklist.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
@@ -1523,7 +1523,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1533,6 +1533,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1574,7 +1580,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1595,6 +1601,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1896,7 +1912,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1937,26 +1953,27 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="40.5">
-      <c r="A2" s="3">
+    <row r="2" spans="1:8" s="11" customFormat="1" ht="40.5">
+      <c r="A2" s="8">
         <v>20</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="10" t="s">
         <v>52</v>
       </c>
     </row>

--- a/plan/plan_tracklist.xlsx
+++ b/plan/plan_tracklist.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
@@ -21,7 +21,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment ref="F8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,10 +51,211 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>黄涛
-文平波
-高建武
-胡洪兵</t>
+          <t>黄涛</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>高建武</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>文平波</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>胡洪兵</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>文平波</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>黄涛</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>文平波</t>
         </r>
       </text>
     </comment>
@@ -1396,6 +1597,9 @@
     </r>
   </si>
   <si>
+    <t>Linux Lab: 内核实验环境</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1427,9 +1631,6 @@
       <t>脚本不工作，语法之外的那些事儿</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Linux Lab: 内核实验环境</t>
   </si>
 </sst>
 </file>
@@ -1911,8 +2112,8 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1982,7 +2183,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>18</v>
@@ -1991,7 +2192,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>44</v>
@@ -2011,7 +2212,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>45</v>
@@ -2031,7 +2232,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>46</v>
@@ -2047,14 +2248,14 @@
       <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>58</v>
+      <c r="F6" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="27">
+    <row r="7" spans="1:8" ht="28.5">
       <c r="A7" s="3">
         <v>25</v>
       </c>
@@ -2065,7 +2266,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>48</v>
@@ -2081,8 +2282,8 @@
       <c r="E8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>60</v>
+      <c r="F8" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>49</v>
@@ -2096,10 +2297,10 @@
         <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>50</v>
@@ -2112,8 +2313,8 @@
       <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>62</v>
+      <c r="F10" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>51</v>
@@ -2127,7 +2328,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="28.5">
@@ -2137,8 +2338,8 @@
       <c r="D12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>64</v>
+      <c r="F12" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.5">
@@ -2148,8 +2349,8 @@
       <c r="D13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>65</v>
+      <c r="F13" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.5">

--- a/plan/plan_tracklist.xlsx
+++ b/plan/plan_tracklist.xlsx
@@ -1629,6 +1629,16 @@
         <charset val="134"/>
       </rPr>
       <t>脚本不工作，语法之外的那些事儿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(why-shell-scripts-fails)</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2112,8 +2122,8 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2192,7 +2202,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>44</v>
@@ -2212,7 +2222,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>45</v>
@@ -2232,7 +2242,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>46</v>

--- a/plan/plan_tracklist.xlsx
+++ b/plan/plan_tracklist.xlsx
@@ -264,10 +264,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Sunday</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -284,7 +284,7 @@
       </rPr>
       <t>（LWN 翻译）</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -301,7 +301,7 @@
       </rPr>
       <t>（专辑连载）</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -318,7 +318,7 @@
       </rPr>
       <t>（Bug 解析）</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -335,11 +335,11 @@
       </rPr>
       <t>（每周咨讯）</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>周</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -395,7 +395,7 @@
       </rPr>
       <t>writeback</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -451,7 +451,7 @@
       </rPr>
       <t>）进程操作</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -507,7 +507,7 @@
       </rPr>
       <t>）布尔运算</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -563,7 +563,7 @@
       </rPr>
       <t>）字符串操作</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -619,7 +619,7 @@
       </rPr>
       <t>）文件操作</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -675,7 +675,7 @@
       </rPr>
       <t>）文件系统操作</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -731,27 +731,27 @@
       </rPr>
       <t>）网络操作</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>lwn 106177: four level page table</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>lwn 116810: rethinking 4 level page tables</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>lwn 117749: 4 level page tables merged</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>lwn 717293: 5 level page tables</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>lwn 753267: reworking page-table traversal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -797,7 +797,7 @@
       </rPr>
       <t xml:space="preserve"> readahead</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -853,31 +853,31 @@
       </rPr>
       <t>页表</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>lwn 91829: reorganizing the address space</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>lwn 121845: address space radom in 2.6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>lwn 335768: how many page flags do we really have</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>lwn 565097: cramming more into page</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>lwn 320556: speeding up page allocator</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>lwn 155344: introducing gfp_t</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -903,23 +903,23 @@
       </rPr>
       <t xml:space="preserve"> page</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>lwn 101230: kswapd and high-order allocations</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>lwn 121618: yet another approach to memory fragmentation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>lwn 158211: fragmentation avoidance</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>lwn 211505: avoiding and fixing memory fragmentation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -945,27 +945,27 @@
       </rPr>
       <t xml:space="preserve"> anti-fragmentation</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>lwn 368869: memory compaction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>lwn 591998: memory compaction issues</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>lwn 684611: cma and compaction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>lwn 717656: proactive compaction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>lwn 105021: active memory defragmentation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -991,7 +991,7 @@
       </rPr>
       <t xml:space="preserve"> memory compaction</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1024,7 +1024,7 @@
       </rPr>
       <t>调试多任务程序</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1060,7 +1060,7 @@
       </rPr>
       <t>时代</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1096,7 +1096,7 @@
       </rPr>
       <t>同步支持</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1149,7 +1149,7 @@
       </rPr>
       <t>支持</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1166,7 +1166,7 @@
       </rPr>
       <t>（原创）</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1183,477 +1183,490 @@
       </rPr>
       <t>知识星球）</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 240474: cfs group scheduling (重复）</t>
+  </si>
+  <si>
+    <t>lwn 415740: tty-based group scheduling</t>
+  </si>
+  <si>
+    <t>lwn 418884: group scheduling and alternatives</t>
+  </si>
+  <si>
+    <t>lwn 433904: a group scheduling demonstration</t>
+  </si>
+  <si>
+    <t>lwn 428230: cfs bandwidth control</t>
+  </si>
+  <si>
+    <t>lwn 106010: approaches to realtime linux</t>
+  </si>
+  <si>
+    <t>lwn 146861: a realtime preemption overview</t>
+  </si>
+  <si>
+    <t>lwn 668126: toward more predictable and reliable out-of-memory handling</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bugfix: Qemu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ARM Linux 5.0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必现启动死机</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Android trace </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件抓取原理</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ftrace </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实现原理与开发实践</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>利用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> GDB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行远程调试</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BASH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的调试手段</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Android </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应用启动速度优化之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Systrace </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的使用</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Linux </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>段错误详解</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> JDB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Android </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应用程序</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Android Native </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程序中输出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> LOG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Android ADB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>介绍及常见错误分析</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>如何快速定位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Linux Panic </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出错的代码行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>通过网络使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ADB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Linux </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内核</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Section Mismatch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>详解</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> kGDB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Linux </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内核</t>
+    </r>
+  </si>
+  <si>
+    <t>Linux Lab: 内核实验环境</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为什么</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Shell </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>脚本不工作，语法之外的那些事儿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(why-shell-scripts-fails)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎投稿</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>lwn 230574: schedulers: the plot thickens</t>
-  </si>
-  <si>
-    <t>lwn 240474: cfs group scheduling (重复）</t>
-  </si>
-  <si>
-    <t>lwn 415740: tty-based group scheduling</t>
-  </si>
-  <si>
-    <t>lwn 418884: group scheduling and alternatives</t>
-  </si>
-  <si>
-    <t>lwn 433904: a group scheduling demonstration</t>
-  </si>
-  <si>
-    <t>lwn 428230: cfs bandwidth control</t>
-  </si>
-  <si>
-    <t>lwn 106010: approaches to realtime linux</t>
-  </si>
-  <si>
-    <t>lwn 146861: a realtime preemption overview</t>
-  </si>
-  <si>
-    <t>lwn 668126: toward more predictable and reliable out-of-memory handling</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Bugfix: Qemu </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>运行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> ARM Linux 5.0 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必现启动死机</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Android trace </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件抓取原理</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ftrace </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>实现原理与开发实践</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>利用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> GDB </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进行远程调试</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">BASH </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的调试手段</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Android </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>应用启动速度优化之</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Systrace </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的使用</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Linux </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>段错误详解</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> JDB </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>调试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Android </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>应用程序</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Android Native </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>程序中输出</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> LOG</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Android ADB </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>介绍及常见错误分析</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>如何快速定位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Linux Panic </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>出错的代码行</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>通过网络使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> ADB</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Linux </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内核</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Section Mismatch </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>详解</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> kGDB </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>调试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Linux </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内核</t>
-    </r>
-  </si>
-  <si>
-    <t>Linux Lab: 内核实验环境</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为什么</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Shell </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>脚本不工作，语法之外的那些事儿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(why-shell-scripts-fails)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1780,23 +1793,23 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1805,23 +1818,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2123,7 +2142,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2164,48 +2183,52 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" ht="40.5">
-      <c r="A2" s="8">
+    <row r="2" spans="1:8" s="10" customFormat="1" ht="40.5">
+      <c r="A2" s="7">
         <v>20</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27">
-      <c r="A3" s="3">
+      <c r="H2" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="10" customFormat="1" ht="27">
+      <c r="A3" s="7">
         <v>21</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>44</v>
+      <c r="F3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.5">
@@ -2222,10 +2245,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.5">
@@ -2242,10 +2265,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="40.5">
@@ -2259,10 +2282,10 @@
         <v>7</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.5">
@@ -2276,10 +2299,10 @@
         <v>12</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.5">
@@ -2290,13 +2313,13 @@
         <v>17</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.5">
@@ -2307,13 +2330,13 @@
         <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.5">
@@ -2324,10 +2347,10 @@
         <v>20</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.5">
@@ -2338,7 +2361,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="28.5">
@@ -2349,7 +2372,7 @@
         <v>22</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.5">
@@ -2360,7 +2383,7 @@
         <v>23</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.5">
@@ -2371,7 +2394,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2470,7 +2493,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2485,7 +2508,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2498,7 +2521,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/plan/plan_tracklist.xlsx
+++ b/plan/plan_tracklist.xlsx
@@ -21,6 +21,40 @@
     <author>Administrator</author>
   </authors>
   <commentList>
+    <comment ref="E8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>文平波</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F8" authorId="0">
       <text>
         <r>
@@ -264,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Sunday</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -734,6 +768,1090 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>lwn 717293: 5 level page tables</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 753267: reworking page-table traversal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LWN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页缓存之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> readahead</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LWN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页缓存之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页表</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 91829: reorganizing the address space</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 121845: address space radom in 2.6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 335768: how many page flags do we really have</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 565097: cramming more into page</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 320556: speeding up page allocator</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 155344: introducing gfp_t</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LWN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> page</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 101230: kswapd and high-order allocations</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 121618: yet another approach to memory fragmentation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 158211: fragmentation avoidance</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 211505: avoiding and fixing memory fragmentation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LWN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> anti-fragmentation</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 368869: memory compaction</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 591998: memory compaction issues</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 684611: cma and compaction</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 717656: proactive compaction</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 105021: active memory defragmentation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LWN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> memory compaction</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如何用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> gdb </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调试多任务程序</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Linux Lab </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正式进入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Linux 5.0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时代</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Linux </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发布</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 5.1, Linux Lab </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同步支持</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Linux Lab </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增全功能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Rootfs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Monday</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（原创）</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Saturday (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>知识星球）</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 240474: cfs group scheduling (重复）</t>
+  </si>
+  <si>
+    <t>lwn 415740: tty-based group scheduling</t>
+  </si>
+  <si>
+    <t>lwn 418884: group scheduling and alternatives</t>
+  </si>
+  <si>
+    <t>lwn 433904: a group scheduling demonstration</t>
+  </si>
+  <si>
+    <t>lwn 428230: cfs bandwidth control</t>
+  </si>
+  <si>
+    <t>lwn 106010: approaches to realtime linux</t>
+  </si>
+  <si>
+    <t>lwn 146861: a realtime preemption overview</t>
+  </si>
+  <si>
+    <t>lwn 668126: toward more predictable and reliable out-of-memory handling</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bugfix: Qemu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ARM Linux 5.0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必现启动死机</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Android trace </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件抓取原理</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ftrace </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实现原理与开发实践</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>利用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> GDB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行远程调试</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Android </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应用启动速度优化之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Systrace </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的使用</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Linux </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>段错误详解</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> JDB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Android </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应用程序</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Android Native </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程序中输出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> LOG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Android ADB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>介绍及常见错误分析</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>如何快速定位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Linux Panic </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出错的代码行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>通过网络使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ADB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Linux </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内核</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Section Mismatch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>详解</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> kGDB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Linux </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内核</t>
+    </r>
+  </si>
+  <si>
+    <t>Linux Lab: 内核实验环境</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为什么</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Shell </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>脚本不工作，语法之外的那些事儿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(why-shell-scripts-fails)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎投稿</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 230574: schedulers: the plot thickens</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>利用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Linux Lab </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完成嵌入式系统软件开发全过程</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Docker/Qemu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快速构建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Linux </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内核实验环境</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>五分钟内搭建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Linux 0.11 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的实验环境</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Docker </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快速构建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Linux 0.11 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实验环境</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BASH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的调试手段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(bash-debugging-tools)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>lwn 106177: four level page table</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -743,908 +1861,6 @@
   </si>
   <si>
     <t>lwn 117749: 4 level page tables merged</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 717293: 5 level page tables</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 753267: reworking page-table traversal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">LWN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>合集</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>页缓存之</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> readahead</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">LWN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>合集</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>页缓存之</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>页表</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 91829: reorganizing the address space</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 121845: address space radom in 2.6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 335768: how many page flags do we really have</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 565097: cramming more into page</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 320556: speeding up page allocator</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 155344: introducing gfp_t</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">LWN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>合集</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> page</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 101230: kswapd and high-order allocations</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 121618: yet another approach to memory fragmentation</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 158211: fragmentation avoidance</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 211505: avoiding and fixing memory fragmentation</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">LWN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>合集</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> anti-fragmentation</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 368869: memory compaction</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 591998: memory compaction issues</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 684611: cma and compaction</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 717656: proactive compaction</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 105021: active memory defragmentation</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">LWN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>合集</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> memory compaction</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>如何用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> gdb </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>调试多任务程序</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Linux Lab </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>正式进入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Linux 5.0 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时代</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Linux </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>发布</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 5.1, Linux Lab </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同步支持</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Linux Lab </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>新增全功能</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Rootfs </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支持</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Monday</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（原创）</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Saturday (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>知识星球）</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 240474: cfs group scheduling (重复）</t>
-  </si>
-  <si>
-    <t>lwn 415740: tty-based group scheduling</t>
-  </si>
-  <si>
-    <t>lwn 418884: group scheduling and alternatives</t>
-  </si>
-  <si>
-    <t>lwn 433904: a group scheduling demonstration</t>
-  </si>
-  <si>
-    <t>lwn 428230: cfs bandwidth control</t>
-  </si>
-  <si>
-    <t>lwn 106010: approaches to realtime linux</t>
-  </si>
-  <si>
-    <t>lwn 146861: a realtime preemption overview</t>
-  </si>
-  <si>
-    <t>lwn 668126: toward more predictable and reliable out-of-memory handling</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Bugfix: Qemu </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>运行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> ARM Linux 5.0 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必现启动死机</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Android trace </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件抓取原理</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ftrace </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>实现原理与开发实践</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>利用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> GDB </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进行远程调试</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">BASH </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的调试手段</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Android </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>应用启动速度优化之</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Systrace </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的使用</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Linux </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>段错误详解</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> JDB </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>调试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Android </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>应用程序</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Android Native </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>程序中输出</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> LOG</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Android ADB </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>介绍及常见错误分析</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>如何快速定位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Linux Panic </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>出错的代码行</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>通过网络使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> ADB</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Linux </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内核</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Section Mismatch </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>详解</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> kGDB </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>调试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Linux </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内核</t>
-    </r>
-  </si>
-  <si>
-    <t>Linux Lab: 内核实验环境</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为什么</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Shell </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>脚本不工作，语法之外的那些事儿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(why-shell-scripts-fails)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢迎投稿</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 230574: schedulers: the plot thickens</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2142,7 +2358,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4:C5"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2165,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -2180,7 +2396,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="10" customFormat="1" ht="40.5">
@@ -2189,7 +2405,7 @@
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>6</v>
@@ -2198,13 +2414,13 @@
         <v>8</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="10" customFormat="1" ht="27">
@@ -2213,22 +2429,22 @@
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.5">
@@ -2236,19 +2452,19 @@
         <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.5">
@@ -2256,87 +2472,99 @@
         <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="40.5">
       <c r="A6" s="3">
         <v>24</v>
       </c>
+      <c r="C6" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.5">
       <c r="A7" s="3">
         <v>25</v>
       </c>
+      <c r="C7" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.5">
       <c r="A8" s="3">
         <v>26</v>
       </c>
+      <c r="C8" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="D8" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.5">
       <c r="A9" s="3">
         <v>27</v>
       </c>
+      <c r="C9" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="D9" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.5">
@@ -2344,13 +2572,13 @@
         <v>28</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.5">
@@ -2358,10 +2586,10 @@
         <v>29</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="28.5">
@@ -2369,10 +2597,10 @@
         <v>30</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.5">
@@ -2380,10 +2608,10 @@
         <v>31</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.5">
@@ -2391,10 +2619,10 @@
         <v>32</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2402,7 +2630,7 @@
         <v>33</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2410,7 +2638,7 @@
         <v>34</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="28.5">
@@ -2418,7 +2646,7 @@
         <v>35</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="28.5">
@@ -2426,7 +2654,7 @@
         <v>36</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="28.5">
@@ -2434,7 +2662,7 @@
         <v>37</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="28.5">
@@ -2442,7 +2670,7 @@
         <v>38</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="28.5">
@@ -2450,7 +2678,7 @@
         <v>39</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2458,7 +2686,7 @@
         <v>40</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2466,7 +2694,7 @@
         <v>41</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.5">
@@ -2474,22 +2702,22 @@
         <v>42</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="D25" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="D26" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="D27" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/plan/plan_tracklist.xlsx
+++ b/plan/plan_tracklist.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
@@ -301,7 +301,7 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Sunday</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -318,7 +318,7 @@
       </rPr>
       <t>（LWN 翻译）</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -335,7 +335,7 @@
       </rPr>
       <t>（专辑连载）</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -352,11 +352,11 @@
       </rPr>
       <t>（Bug 解析）</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>周</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -412,7 +412,7 @@
       </rPr>
       <t>writeback</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -468,7 +468,7 @@
       </rPr>
       <t>）进程操作</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -524,7 +524,7 @@
       </rPr>
       <t>）布尔运算</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -580,7 +580,7 @@
       </rPr>
       <t>）字符串操作</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -636,7 +636,7 @@
       </rPr>
       <t>）文件操作</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -692,7 +692,7 @@
       </rPr>
       <t>）文件系统操作</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -748,15 +748,15 @@
       </rPr>
       <t>）网络操作</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lwn 717293: 5 level page tables</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lwn 753267: reworking page-table traversal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -802,7 +802,7 @@
       </rPr>
       <t xml:space="preserve"> readahead</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -858,31 +858,31 @@
       </rPr>
       <t>页表</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lwn 91829: reorganizing the address space</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lwn 121845: address space radom in 2.6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lwn 335768: how many page flags do we really have</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lwn 565097: cramming more into page</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lwn 320556: speeding up page allocator</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lwn 155344: introducing gfp_t</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -908,23 +908,23 @@
       </rPr>
       <t xml:space="preserve"> page</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lwn 101230: kswapd and high-order allocations</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lwn 121618: yet another approach to memory fragmentation</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lwn 158211: fragmentation avoidance</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lwn 211505: avoiding and fixing memory fragmentation</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -950,27 +950,27 @@
       </rPr>
       <t xml:space="preserve"> anti-fragmentation</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lwn 368869: memory compaction</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lwn 591998: memory compaction issues</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lwn 684611: cma and compaction</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lwn 717656: proactive compaction</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lwn 105021: active memory defragmentation</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -996,7 +996,7 @@
       </rPr>
       <t xml:space="preserve"> memory compaction</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1029,7 +1029,7 @@
       </rPr>
       <t>调试多任务程序</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1065,7 +1065,7 @@
       </rPr>
       <t>时代</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1101,7 +1101,7 @@
       </rPr>
       <t>同步支持</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1154,7 +1154,7 @@
       </rPr>
       <t>支持</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1171,7 +1171,7 @@
       </rPr>
       <t>（原创）</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1188,32 +1188,7 @@
       </rPr>
       <t>知识星球）</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 240474: cfs group scheduling (重复）</t>
-  </si>
-  <si>
-    <t>lwn 415740: tty-based group scheduling</t>
-  </si>
-  <si>
-    <t>lwn 418884: group scheduling and alternatives</t>
-  </si>
-  <si>
-    <t>lwn 433904: a group scheduling demonstration</t>
-  </si>
-  <si>
-    <t>lwn 428230: cfs bandwidth control</t>
-  </si>
-  <si>
-    <t>lwn 106010: approaches to realtime linux</t>
-  </si>
-  <si>
-    <t>lwn 146861: a realtime preemption overview</t>
-  </si>
-  <si>
-    <t>lwn 668126: toward more predictable and reliable out-of-memory handling</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1249,7 +1224,7 @@
       </rPr>
       <t>必现启动死机</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1265,7 +1240,7 @@
       </rPr>
       <t>文件抓取原理</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1281,7 +1256,7 @@
       </rPr>
       <t>实现原理与开发实践</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1314,7 +1289,7 @@
       </rPr>
       <t>进行远程调试</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1350,7 +1325,7 @@
       </rPr>
       <t>的使用</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1626,15 +1601,11 @@
       </rPr>
       <t>(why-shell-scripts-fails)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>欢迎投稿</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 230574: schedulers: the plot thickens</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1667,7 +1638,7 @@
       </rPr>
       <t>完成嵌入式系统软件开发全过程</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1720,7 +1691,7 @@
       </rPr>
       <t>内核实验环境</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1753,7 +1724,7 @@
       </rPr>
       <t>的实验环境</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1806,7 +1777,7 @@
       </rPr>
       <t>实验环境</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1832,19 +1803,19 @@
       </rPr>
       <t>(bash-debugging-tools)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lwn 106177: four level page table</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lwn 116810: rethinking 4 level page tables</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lwn 117749: 4 level page tables merged</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1872,18 +1843,82 @@
       </rPr>
       <t>https://lwn.net/Archives/</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>准备</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泰晓资讯·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第四期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> / 2019](tinylab-weekly-05-4th-2019)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+准备</t>
     </r>
     <r>
       <rPr>
@@ -1895,28 +1930,56 @@
       </rPr>
       <t>[2019/5/23](https://lwn.net/Articles/788676/)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 668126: toward more predictable and reliable out-of-memory handling</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 230574: schedulers: the plot thickens</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 240474: cfs group scheduling (重复）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 415740: tty-based group scheduling</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 418884: group scheduling and alternatives</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 433904: a group scheduling demonstration</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 428230: cfs bandwidth control</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 106010: approaches to realtime linux</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 146861: a realtime preemption overview</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1997,7 +2060,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2013,6 +2076,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2043,23 +2112,23 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2068,10 +2137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2080,16 +2146,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2390,9 +2453,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2427,81 +2490,82 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" ht="40.5">
-      <c r="A2" s="7">
+    <row r="2" spans="1:8" s="8" customFormat="1" ht="42.75">
+      <c r="A2" s="6">
         <v>20</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>47</v>
+      <c r="H2" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" ht="27">
-      <c r="A3" s="7">
+    <row r="3" spans="1:8" s="8" customFormat="1" ht="28.5">
+      <c r="A3" s="6">
         <v>21</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="8" customFormat="1" ht="84.75">
+      <c r="A4" s="6">
+        <v>22</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="42">
-      <c r="A4" s="3">
-        <v>22</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>40</v>
+      <c r="F4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.5">
@@ -2512,36 +2576,36 @@
         <v>37</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="40.5">
+    <row r="6" spans="1:8" ht="28.5">
       <c r="A6" s="3">
         <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>42</v>
+      <c r="F6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.5">
@@ -2549,7 +2613,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>12</v>
@@ -2558,10 +2622,10 @@
         <v>11</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.5">
@@ -2569,19 +2633,19 @@
         <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.5">
@@ -2589,19 +2653,19 @@
         <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.5">
@@ -2611,11 +2675,11 @@
       <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>46</v>
+      <c r="F10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.5">
@@ -2625,8 +2689,8 @@
       <c r="D11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>58</v>
+      <c r="F11" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="28.5">
@@ -2637,7 +2701,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.5">
@@ -2647,8 +2711,8 @@
       <c r="D13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>54</v>
+      <c r="F13" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.5">
@@ -2658,8 +2722,8 @@
       <c r="D14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>60</v>
+      <c r="F14" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2758,7 +2822,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2773,7 +2837,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2786,7 +2850,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/plan/plan_tracklist.xlsx
+++ b/plan/plan_tracklist.xlsx
@@ -1810,10 +1810,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>lwn 116810: rethinking 4 level page tables</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>lwn 117749: 4 level page tables merged</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1966,6 +1962,10 @@
   </si>
   <si>
     <t>lwn 146861: a realtime preemption overview</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 116810: rethinking 4 level page tables</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2455,7 +2455,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2490,7 +2490,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>39</v>
@@ -2517,7 +2517,7 @@
         <v>36</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="8" customFormat="1" ht="28.5">
@@ -2541,7 +2541,7 @@
         <v>55</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="8" customFormat="1" ht="84.75">
@@ -2562,10 +2562,10 @@
         <v>42</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.5">
@@ -2576,7 +2576,7 @@
         <v>37</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>10</v>
@@ -2585,7 +2585,7 @@
         <v>43</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.5">
@@ -2596,7 +2596,7 @@
         <v>56</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>6</v>
@@ -2605,7 +2605,7 @@
         <v>49</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.5">
@@ -2625,7 +2625,7 @@
         <v>51</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.5">
@@ -2645,7 +2645,7 @@
         <v>41</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.5">
@@ -2665,7 +2665,7 @@
         <v>44</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.5">
@@ -2679,7 +2679,7 @@
         <v>47</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.5">

--- a/plan/plan_tracklist.xlsx
+++ b/plan/plan_tracklist.xlsx
@@ -298,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Sunday</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -456,17 +456,17 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）进程操作</t>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）布尔运算</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -512,17 +512,17 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）布尔运算</t>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）字符串操作</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -568,17 +568,17 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）字符串操作</t>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）文件操作</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -624,17 +624,17 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）文件操作</t>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）文件系统操作</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -680,33 +680,41 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）文件系统操作</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Shell </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>编程范例</t>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）网络操作</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 717293: 5 level page tables</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 753267: reworking page-table traversal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LWN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合集</t>
     </r>
     <r>
       <rPr>
@@ -726,36 +734,18 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）网络操作</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 717293: 5 level page tables</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 753267: reworking page-table traversal</t>
+      <t>页缓存之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> readahead</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -800,8 +790,42 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> readahead</t>
-    </r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页表</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 91829: reorganizing the address space</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 121845: address space radom in 2.6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 335768: how many page flags do we really have</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 565097: cramming more into page</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 320556: speeding up page allocator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 155344: introducing gfp_t</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -826,62 +850,24 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>页缓存之</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>页表</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 91829: reorganizing the address space</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 121845: address space radom in 2.6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 335768: how many page flags do we really have</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 565097: cramming more into page</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 320556: speeding up page allocator</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 155344: introducing gfp_t</t>
+      <t xml:space="preserve"> page</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 101230: kswapd and high-order allocations</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 121618: yet another approach to memory fragmentation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 158211: fragmentation avoidance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 211505: avoiding and fixing memory fragmentation</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -906,24 +892,28 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> page</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 101230: kswapd and high-order allocations</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 121618: yet another approach to memory fragmentation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 158211: fragmentation avoidance</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 211505: avoiding and fixing memory fragmentation</t>
+      <t xml:space="preserve"> anti-fragmentation</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 368869: memory compaction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 591998: memory compaction issues</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 684611: cma and compaction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 717656: proactive compaction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 105021: active memory defragmentation</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -948,52 +938,6 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> anti-fragmentation</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 368869: memory compaction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 591998: memory compaction issues</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 684611: cma and compaction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 717656: proactive compaction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 105021: active memory defragmentation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">LWN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>合集</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve"> memory compaction</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1807,10 +1751,6 @@
   </si>
   <si>
     <t>lwn 106177: four level page table</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 117749: 4 level page tables merged</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1842,6 +1782,42 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>lwn 668126: toward more predictable and reliable out-of-memory handling</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 230574: schedulers: the plot thickens</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 240474: cfs group scheduling (重复）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 418884: group scheduling and alternatives</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 433904: a group scheduling demonstration</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 428230: cfs bandwidth control</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 106010: approaches to realtime linux</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 146861: a realtime preemption overview</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 116810: rethinking 4 level page tables</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>[</t>
     </r>
@@ -1929,43 +1905,153 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>lwn 668126: toward more predictable and reliable out-of-memory handling</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 230574: schedulers: the plot thickens</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 240474: cfs group scheduling (重复）</t>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泰晓资讯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>·06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> / 2019]</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 117749: 4 level page tables merged</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shell </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编程范例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）进程操作</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lwn 415740: tty-based group scheduling</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 418884: group scheduling and alternatives</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 433904: a group scheduling demonstration</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 428230: cfs bandwidth control</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 106010: approaches to realtime linux</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 146861: a realtime preemption overview</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 116810: rethinking 4 level page tables</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2060,7 +2146,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2082,6 +2168,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2123,7 +2215,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2152,6 +2244,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2453,9 +2548,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2478,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -2490,10 +2585,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" ht="42.75">
@@ -2502,22 +2597,22 @@
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="8" customFormat="1" ht="28.5">
@@ -2526,22 +2621,22 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="8" customFormat="1" ht="84.75">
@@ -2550,122 +2645,126 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="8" customFormat="1" ht="28.5">
+      <c r="A5" s="6">
+        <v>23</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.5">
-      <c r="A5" s="3">
-        <v>23</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>68</v>
+      <c r="G5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.5">
       <c r="A6" s="3">
         <v>24</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>56</v>
+      <c r="C6" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.5">
       <c r="A7" s="3">
         <v>25</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>57</v>
+      <c r="C7" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.5">
       <c r="A8" s="3">
         <v>26</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>58</v>
+      <c r="C8" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.5">
       <c r="A9" s="3">
         <v>27</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>59</v>
+      <c r="C9" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.5">
@@ -2673,13 +2772,13 @@
         <v>28</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.5">
@@ -2687,10 +2786,10 @@
         <v>29</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="28.5">
@@ -2698,10 +2797,10 @@
         <v>30</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.5">
@@ -2709,10 +2808,10 @@
         <v>31</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.5">
@@ -2720,10 +2819,10 @@
         <v>32</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2731,7 +2830,7 @@
         <v>33</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2739,7 +2838,7 @@
         <v>34</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="28.5">
@@ -2747,7 +2846,7 @@
         <v>35</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="28.5">
@@ -2755,7 +2854,7 @@
         <v>36</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="28.5">
@@ -2763,7 +2862,7 @@
         <v>37</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="28.5">
@@ -2771,7 +2870,7 @@
         <v>38</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="28.5">
@@ -2779,7 +2878,7 @@
         <v>39</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2787,7 +2886,7 @@
         <v>40</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2795,7 +2894,7 @@
         <v>41</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.5">
@@ -2803,22 +2902,22 @@
         <v>42</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="D25" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="D26" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="D27" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/plan/plan_tracklist.xlsx
+++ b/plan/plan_tracklist.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
@@ -18,10 +18,113 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>unicornx</author>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="E8" authorId="0">
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>unicornx:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>目前以</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> linuxlab</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">系列为主
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>unicornx:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>目前以</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> shell </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">编程系列
+为主
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="1">
       <text>
         <r>
           <rPr>
@@ -55,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0">
+    <comment ref="F10" authorId="1">
       <text>
         <r>
           <rPr>
@@ -89,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0">
+    <comment ref="F11" authorId="1">
       <text>
         <r>
           <rPr>
@@ -123,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F10" authorId="0">
+    <comment ref="F12" authorId="1">
       <text>
         <r>
           <rPr>
@@ -157,7 +260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0">
+    <comment ref="F13" authorId="1">
       <text>
         <r>
           <rPr>
@@ -191,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0">
+    <comment ref="F14" authorId="1">
       <text>
         <r>
           <rPr>
@@ -225,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0">
+    <comment ref="F15" authorId="1">
       <text>
         <r>
           <rPr>
@@ -259,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0">
+    <comment ref="F16" authorId="1">
       <text>
         <r>
           <rPr>
@@ -298,7 +401,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Sunday</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1549,178 +1652,6 @@
   </si>
   <si>
     <t>欢迎投稿</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>利用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Linux Lab </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>完成嵌入式系统软件开发全过程</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Docker/Qemu </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>快速构建</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Linux </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内核实验环境</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>五分钟内搭建</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Linux 0.11 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的实验环境</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Docker </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>快速构建</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Linux 0.11 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>实验环境</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1905,6 +1836,96 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>lwn 117749: 4 level page tables merged</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shell </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编程范例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）进程操作</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwn 415740: tty-based group scheduling</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Linux Lab </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发布</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> v0.1 rc1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>[</t>
     </r>
@@ -1991,67 +2012,313 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>lwn 117749: 4 level page tables merged</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Shell </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>编程范例</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）进程操作</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lwn 415740: tty-based group scheduling</t>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泰晓资讯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>·06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> / 2019]</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bugfix: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> qemu/raspi3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>启动过程的一堆警告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(2019-06-11-00-41-33-bugfix-silence-raspi3-boot-warnings.md)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bugfix: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> git bisect </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自动定位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> uboot </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>启动失败问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(2019-06-11-02-59-23-bugfix-git-bisect-uboot-failure.md)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Linux Lab </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新开发板添加指南</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(2019-06-11-07-01-41-add-new-board-for-linux-lab.md)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泰晓资讯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>·06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> / 2019]</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2059,7 +2326,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2145,8 +2412,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2168,12 +2443,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2215,7 +2484,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2244,9 +2513,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2550,7 +2816,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2585,7 +2851,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>38</v>
@@ -2612,7 +2878,7 @@
         <v>35</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="8" customFormat="1" ht="28.5">
@@ -2636,7 +2902,7 @@
         <v>54</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="8" customFormat="1" ht="84.75">
@@ -2648,7 +2914,7 @@
         <v>34</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>8</v>
@@ -2657,10 +2923,10 @@
         <v>41</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="8" customFormat="1" ht="28.5">
@@ -2672,7 +2938,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>9</v>
@@ -2684,35 +2950,38 @@
         <v>72</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.5">
       <c r="A6" s="3">
         <v>24</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>55</v>
+      <c r="C6" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="G6" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="H6" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28.5">
+    <row r="7" spans="1:8" ht="71.25">
       <c r="A7" s="3">
         <v>25</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>56</v>
+      <c r="C7" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>11</v>
@@ -2721,39 +2990,36 @@
         <v>10</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>50</v>
+        <v>75</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28.5">
+    <row r="8" spans="1:8" ht="57">
       <c r="A8" s="3">
         <v>26</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>57</v>
-      </c>
       <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.5">
       <c r="A9" s="3">
         <v>27</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>58</v>
-      </c>
       <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
@@ -2761,10 +3027,10 @@
         <v>53</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.5">
@@ -2774,11 +3040,11 @@
       <c r="D10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>46</v>
+      <c r="F10" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.5">
@@ -2788,8 +3054,8 @@
       <c r="D11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>49</v>
+      <c r="F11" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="28.5">
@@ -2799,8 +3065,8 @@
       <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>47</v>
+      <c r="F12" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.5">
@@ -2811,7 +3077,7 @@
         <v>18</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.5">
@@ -2821,16 +3087,19 @@
       <c r="D14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>51</v>
+      <c r="F14" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="28.5">
       <c r="A15" s="3">
         <v>33</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2839,6 +3108,9 @@
       </c>
       <c r="D16" s="4" t="s">
         <v>21</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="28.5">
